--- a/src/public/exports/thong-ke-ket-qua-mon-toan-hoc-12.xlsx
+++ b/src/public/exports/thong-ke-ket-qua-mon-toan-hoc-12.xlsx
@@ -397,7 +397,7 @@
         <v>Tiến trình học</v>
       </c>
       <c r="F1" t="str">
-        <v>Nhận xét</v>
+        <v>Đánh giá</v>
       </c>
     </row>
     <row r="2">
@@ -411,10 +411,10 @@
         <v>hoanghuynh0609@gmail.com</v>
       </c>
       <c r="D2">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E2" t="str">
-        <v>Hoàn thành 2/4 bài học (50%)</v>
+        <v>Hoàn thành 3/4 bài học (75%)</v>
       </c>
       <c r="F2" t="str">
         <v>Đạt</v>
